--- a/Program/Other/Sharepoint上傳用/測試FT/L5/L5071 L5701 L5976/L5976/FT_L5071 L5976.xlsx
+++ b/Program/Other/Sharepoint上傳用/測試FT/L5/L5071 L5701 L5976/L5976/FT_L5071 L5976.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\測試FT\L5\L5071 L5701 L5976\L5976\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD28391-0743-4A1A-BD96-0714D0A3741F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8158D58F-3895-47E9-8E26-E75F352AE450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <t>Manual</t>
   </si>
   <si>
-    <t>cu31780002</t>
-  </si>
-  <si>
     <t>按鈕</t>
   </si>
   <si>
@@ -420,7 +417,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.65.docx</t>
+    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.64.DOCX</t>
+  </si>
+  <si>
+    <t>cu31780005</t>
   </si>
 </sst>
 </file>
@@ -964,7 +964,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -1022,42 +1022,42 @@
         <v>11</v>
       </c>
       <c r="M1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>106</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>30</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>12</v>
@@ -1066,19 +1066,19 @@
         <v>13</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q2" s="23">
         <v>44602</v>
@@ -1086,25 +1086,25 @@
     </row>
     <row r="3" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>66</v>
-      </c>
       <c r="F3" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>12</v>
@@ -1113,19 +1113,19 @@
         <v>13</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q3" s="23">
         <v>44602</v>
@@ -1133,25 +1133,25 @@
     </row>
     <row r="4" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>12</v>
@@ -1160,19 +1160,19 @@
         <v>13</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="23">
         <v>44602</v>
@@ -1180,25 +1180,25 @@
     </row>
     <row r="5" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>12</v>
@@ -1207,19 +1207,19 @@
         <v>13</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q5" s="23">
         <v>44602</v>
@@ -1227,25 +1227,25 @@
     </row>
     <row r="6" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>12</v>
@@ -1254,19 +1254,19 @@
         <v>13</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q6" s="23">
         <v>44602</v>
@@ -1274,25 +1274,25 @@
     </row>
     <row r="7" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>12</v>
@@ -1301,19 +1301,19 @@
         <v>13</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="23">
         <v>44602</v>
@@ -1321,25 +1321,25 @@
     </row>
     <row r="8" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>12</v>
@@ -1348,19 +1348,19 @@
         <v>13</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q8" s="23">
         <v>44602</v>
@@ -1368,25 +1368,25 @@
     </row>
     <row r="9" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>12</v>
@@ -1395,19 +1395,19 @@
         <v>13</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q9" s="23">
         <v>44602</v>
@@ -1415,25 +1415,25 @@
     </row>
     <row r="10" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>12</v>
@@ -1442,19 +1442,19 @@
         <v>13</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q10" s="23">
         <v>44602</v>
@@ -1462,25 +1462,25 @@
     </row>
     <row r="11" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>12</v>
@@ -1489,19 +1489,19 @@
         <v>13</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q11" s="23">
         <v>44602</v>
@@ -1509,25 +1509,25 @@
     </row>
     <row r="12" spans="1:17" s="10" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>12</v>
@@ -1536,21 +1536,21 @@
         <v>13</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q12" s="23">
         <v>44602</v>
@@ -1558,25 +1558,25 @@
     </row>
     <row r="13" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>12</v>
@@ -1585,19 +1585,19 @@
         <v>13</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q13" s="23">
         <v>44602</v>
@@ -1605,25 +1605,25 @@
     </row>
     <row r="14" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>12</v>
@@ -1632,19 +1632,19 @@
         <v>13</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q14" s="23">
         <v>44602</v>
@@ -1652,25 +1652,25 @@
     </row>
     <row r="15" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>12</v>
@@ -1679,19 +1679,19 @@
         <v>13</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q15" s="23">
         <v>44602</v>
@@ -1699,25 +1699,25 @@
     </row>
     <row r="16" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>12</v>
@@ -1726,19 +1726,19 @@
         <v>13</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="23">
         <v>44602</v>
@@ -1746,25 +1746,25 @@
     </row>
     <row r="17" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>12</v>
@@ -1773,19 +1773,19 @@
         <v>13</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="23">
         <v>44602</v>
@@ -1793,25 +1793,25 @@
     </row>
     <row r="18" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>12</v>
@@ -1820,19 +1820,19 @@
         <v>13</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q18" s="23">
         <v>44602</v>
@@ -1840,25 +1840,25 @@
     </row>
     <row r="19" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>13</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="23">
         <v>44602</v>
@@ -1887,25 +1887,25 @@
     </row>
     <row r="20" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>12</v>
@@ -1914,19 +1914,19 @@
         <v>13</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="23">
         <v>44602</v>
@@ -1934,25 +1934,25 @@
     </row>
     <row r="21" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>12</v>
@@ -1961,19 +1961,19 @@
         <v>13</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q21" s="23">
         <v>44602</v>
@@ -1981,25 +1981,25 @@
     </row>
     <row r="22" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>12</v>
@@ -2008,19 +2008,19 @@
         <v>13</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="23">
         <v>44602</v>
@@ -2028,25 +2028,25 @@
     </row>
     <row r="23" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>12</v>
@@ -2055,19 +2055,19 @@
         <v>13</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q23" s="23">
         <v>44602</v>
@@ -2075,25 +2075,25 @@
     </row>
     <row r="24" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>12</v>
@@ -2102,19 +2102,19 @@
         <v>13</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q24" s="23">
         <v>44602</v>
@@ -2122,25 +2122,25 @@
     </row>
     <row r="25" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>12</v>
@@ -2149,19 +2149,19 @@
         <v>13</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q25" s="23">
         <v>44602</v>
@@ -2169,25 +2169,25 @@
     </row>
     <row r="26" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>12</v>
@@ -2196,19 +2196,19 @@
         <v>13</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q26" s="23">
         <v>44602</v>
@@ -2216,25 +2216,25 @@
     </row>
     <row r="27" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H27" s="11" t="s">
         <v>12</v>
@@ -2243,19 +2243,19 @@
         <v>13</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q27" s="23">
         <v>44602</v>
@@ -2263,25 +2263,25 @@
     </row>
     <row r="28" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>12</v>
@@ -2290,19 +2290,19 @@
         <v>13</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q28" s="23">
         <v>44602</v>
@@ -2310,25 +2310,25 @@
     </row>
     <row r="29" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>12</v>
@@ -2337,19 +2337,19 @@
         <v>13</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q29" s="23">
         <v>44602</v>
@@ -2357,25 +2357,25 @@
     </row>
     <row r="30" spans="1:17" s="10" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>12</v>
@@ -2384,21 +2384,21 @@
         <v>13</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q30" s="23">
         <v>44602</v>
@@ -2406,25 +2406,25 @@
     </row>
     <row r="31" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>12</v>
@@ -2433,19 +2433,19 @@
         <v>13</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q31" s="23">
         <v>44602</v>
@@ -2453,25 +2453,25 @@
     </row>
     <row r="32" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>12</v>
@@ -2480,19 +2480,19 @@
         <v>13</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q32" s="23">
         <v>44602</v>
@@ -2500,25 +2500,25 @@
     </row>
     <row r="33" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>12</v>
@@ -2527,19 +2527,19 @@
         <v>13</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q33" s="23">
         <v>44602</v>
@@ -2547,25 +2547,25 @@
     </row>
     <row r="34" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>12</v>
@@ -2574,19 +2574,19 @@
         <v>13</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q34" s="23">
         <v>44602</v>
@@ -2594,25 +2594,25 @@
     </row>
     <row r="35" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>12</v>
@@ -2621,19 +2621,19 @@
         <v>13</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q35" s="23">
         <v>44602</v>
@@ -2641,25 +2641,25 @@
     </row>
     <row r="36" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>12</v>
@@ -2668,19 +2668,19 @@
         <v>13</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q36" s="23">
         <v>44602</v>
@@ -2688,25 +2688,25 @@
     </row>
     <row r="37" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H37" s="11" t="s">
         <v>12</v>
@@ -2715,19 +2715,19 @@
         <v>13</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q37" s="23">
         <v>44602</v>
@@ -2735,25 +2735,25 @@
     </row>
     <row r="38" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H38" s="11" t="s">
         <v>12</v>
@@ -2762,19 +2762,19 @@
         <v>13</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q38" s="23">
         <v>44602</v>
@@ -2782,25 +2782,25 @@
     </row>
     <row r="39" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>12</v>
@@ -2809,19 +2809,19 @@
         <v>13</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q39" s="23">
         <v>44602</v>
@@ -2829,25 +2829,25 @@
     </row>
     <row r="40" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H40" s="20" t="s">
         <v>12</v>
@@ -2856,21 +2856,21 @@
         <v>13</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L40" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M40" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N40" s="19"/>
       <c r="O40" s="19"/>
       <c r="P40" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q40" s="24">
         <v>44602</v>
